--- a/biology/Médecine/Evelyne_Bignell/Evelyne_Bignell.xlsx
+++ b/biology/Médecine/Evelyne_Bignell/Evelyne_Bignell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evelyne Bignell ou Éveline Bignell, née le 21 avril 1896 à Limoilou et décédée le 16 décembre 1989 à Sillery, est une infirmière canadienne, originaire du Québec[1]. Elle est la première « garde-malade » connue du réseau de dispensaires établis dans la province de Québec dans les années 1920 et 1930[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evelyne Bignell ou Éveline Bignell, née le 21 avril 1896 à Limoilou et décédée le 16 décembre 1989 à Sillery, est une infirmière canadienne, originaire du Québec. Elle est la première « garde-malade » connue du réseau de dispensaires établis dans la province de Québec dans les années 1920 et 1930.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evelyne Bignell nait en 1896[3] à Limoilou. Elle est la plus jeune fille de l'arpenteur Frank Hector Bignell et de Marie-Caroline Emma Cadieux et est la petite-fille de l'arpenteur John Bignell[1].
-En 1925, elle souhaite ardemment travailler au service des populations isolées de la Côte-Nord. Elle écrit au père Garnier en poste sur la Côte-Nord, qui l'incite à se spécialiser en soins infirmier et en obstétrique[2]. À la suite de leurs revendications et grâce au soutien du Dr Lessard, directeur de l'assistance publique, le gouvernement accepte d'établir un dispensaire médical à Rivière-au-Tonnerre[4]. Après une formation intensive à Québec, elle emménage le 26 août 1926, en compagnie de ses parents.
-Si au cours de ses premiers mois d'existence, les dépenses du dispensaire inquiètent le Dr Lessard, les résultats sont satisfaisants[2]. Les dispensaires se multiplient sur la Côte-Nord au cours des années suivantes[4] et ce système qui vise à offrir des services de santé minimaux aux populations isolées va s'étendre dans les régions de colonisation au cours de la Grande Dépression[5].
-Au cours de son service en milieu isolés, Évelyne Bignell est appelée à réaliser des actes alors réservés aux médecins : accouchements, opérations, campagnes de vaccination[1]. Les besoins sont grands et elle s'adjoint les services d'une deuxième infirmière, Antonia Roy[2]. Les visites aux malades se font alors en traîneaux à chiens, en canot ou en goélette. Évelyne Bignell œuvre pendant trois ans à Rivière-au-Tonnerre. En 1929 elle s'installe à Moisie, puis à Aguanish en 1936, œuvrant toujours comme infirmière de dispensaire[1]. Après un séjour en Sanatorium en 1940, elle quitte la Côte-Nord pour travailler au Canton Antoine, au lac Saint-Jean[1].
-Elle décède le 16 décembre 1989 à Sillery à l'âge de 93 ans[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evelyne Bignell nait en 1896 à Limoilou. Elle est la plus jeune fille de l'arpenteur Frank Hector Bignell et de Marie-Caroline Emma Cadieux et est la petite-fille de l'arpenteur John Bignell.
+En 1925, elle souhaite ardemment travailler au service des populations isolées de la Côte-Nord. Elle écrit au père Garnier en poste sur la Côte-Nord, qui l'incite à se spécialiser en soins infirmier et en obstétrique. À la suite de leurs revendications et grâce au soutien du Dr Lessard, directeur de l'assistance publique, le gouvernement accepte d'établir un dispensaire médical à Rivière-au-Tonnerre. Après une formation intensive à Québec, elle emménage le 26 août 1926, en compagnie de ses parents.
+Si au cours de ses premiers mois d'existence, les dépenses du dispensaire inquiètent le Dr Lessard, les résultats sont satisfaisants. Les dispensaires se multiplient sur la Côte-Nord au cours des années suivantes et ce système qui vise à offrir des services de santé minimaux aux populations isolées va s'étendre dans les régions de colonisation au cours de la Grande Dépression.
+Au cours de son service en milieu isolés, Évelyne Bignell est appelée à réaliser des actes alors réservés aux médecins : accouchements, opérations, campagnes de vaccination. Les besoins sont grands et elle s'adjoint les services d'une deuxième infirmière, Antonia Roy. Les visites aux malades se font alors en traîneaux à chiens, en canot ou en goélette. Évelyne Bignell œuvre pendant trois ans à Rivière-au-Tonnerre. En 1929 elle s'installe à Moisie, puis à Aguanish en 1936, œuvrant toujours comme infirmière de dispensaire. Après un séjour en Sanatorium en 1940, elle quitte la Côte-Nord pour travailler au Canton Antoine, au lac Saint-Jean.
+Elle décède le 16 décembre 1989 à Sillery à l'âge de 93 ans,.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rue Evelyne-Bignelle à Sept-Îles est nommée en son honneur[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rue Evelyne-Bignelle à Sept-Îles est nommée en son honneur.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Archives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les archives d'Evelyne Bignell sont conservées chez Bibliothèque et Archives nationales du Québec, à Sept-Îles[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les archives d'Evelyne Bignell sont conservées chez Bibliothèque et Archives nationales du Québec, à Sept-Îles.
 </t>
         </is>
       </c>
